--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60EA3A-04FA-4BEF-BA84-9F4D56C26694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -51,9 +52,6 @@
     <t>invalidLogin_ID</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>Vodafone</t>
   </si>
   <si>
@@ -61,12 +59,21 @@
   </si>
   <si>
     <t>deleteCustomer_ID</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>hgjhg1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -441,12 +448,12 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -455,12 +462,12 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -469,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
